--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/ASM Technologies Ltd/Pruned_Excel/Pruned_Profit-loss_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/ASM Technologies Ltd/Pruned_Excel/Pruned_Profit-loss_combined.xlsx
@@ -627,7 +627,7 @@
         <v>1.64</v>
       </c>
       <c r="O2">
-        <v>2.505555555555556</v>
+        <v>2.51</v>
       </c>
       <c r="P2">
         <v>1.09</v>
@@ -651,7 +651,7 @@
         <v>1.11</v>
       </c>
       <c r="W2">
-        <v>2.545882352941176</v>
+        <v>2.55</v>
       </c>
       <c r="X2">
         <v>38</v>
@@ -725,7 +725,7 @@
         <v>3.22</v>
       </c>
       <c r="W3">
-        <v>2.545882352941176</v>
+        <v>2.55</v>
       </c>
       <c r="X3">
         <v>38</v>
@@ -775,7 +775,7 @@
         <v>2.7</v>
       </c>
       <c r="O4">
-        <v>2.505555555555556</v>
+        <v>2.51</v>
       </c>
       <c r="P4">
         <v>1.45</v>
@@ -799,7 +799,7 @@
         <v>2.4</v>
       </c>
       <c r="W4">
-        <v>2.545882352941176</v>
+        <v>2.55</v>
       </c>
       <c r="X4">
         <v>38</v>
@@ -1491,7 +1491,7 @@
         <v>75.25</v>
       </c>
       <c r="G14">
-        <v>11.24583333333333</v>
+        <v>11.25</v>
       </c>
       <c r="H14">
         <v>45.2</v>
@@ -1565,7 +1565,7 @@
         <v>77.98</v>
       </c>
       <c r="G15">
-        <v>11.24583333333333</v>
+        <v>11.25</v>
       </c>
       <c r="H15">
         <v>51.29</v>
@@ -1639,7 +1639,7 @@
         <v>81.64</v>
       </c>
       <c r="G16">
-        <v>11.24583333333333</v>
+        <v>11.25</v>
       </c>
       <c r="H16">
         <v>52.01</v>
@@ -1713,7 +1713,7 @@
         <v>87.73999999999999</v>
       </c>
       <c r="G17">
-        <v>11.24583333333333</v>
+        <v>11.25</v>
       </c>
       <c r="H17">
         <v>59.66</v>
@@ -1787,7 +1787,7 @@
         <v>116.67</v>
       </c>
       <c r="G18">
-        <v>11.24583333333333</v>
+        <v>11.25</v>
       </c>
       <c r="H18">
         <v>73.03</v>
@@ -1861,7 +1861,7 @@
         <v>147.21</v>
       </c>
       <c r="G19">
-        <v>11.24583333333333</v>
+        <v>11.25</v>
       </c>
       <c r="H19">
         <v>93.68000000000001</v>
@@ -1935,7 +1935,7 @@
         <v>149.64</v>
       </c>
       <c r="G20">
-        <v>11.24583333333333</v>
+        <v>11.25</v>
       </c>
       <c r="H20">
         <v>86.59999999999999</v>
@@ -2009,7 +2009,7 @@
         <v>134.12</v>
       </c>
       <c r="G21">
-        <v>11.24583333333333</v>
+        <v>11.25</v>
       </c>
       <c r="H21">
         <v>73.77</v>
